--- a/LRBSfix.xlsx
+++ b/LRBSfix.xlsx
@@ -9,18 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6696" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="6690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fuzzy_join dist=2" sheetId="1" r:id="rId1"/>
     <sheet name="EVJ" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EVJ!$A$1:$K$123</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="273">
   <si>
     <t>SampleID</t>
   </si>
@@ -757,9 +760,6 @@
     <t>Final StationID</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Exact match</t>
   </si>
   <si>
@@ -781,7 +781,67 @@
     <t>1AGOO039.63 is exact match but no field data in CEDS on that date.. NRSA site?</t>
   </si>
   <si>
-    <t>sample date looks off</t>
+    <t>Comments from CEDS Review</t>
+  </si>
+  <si>
+    <t>Comments from PHAB folder review</t>
+  </si>
+  <si>
+    <t>NRSA site, not in CEDS.. Add to CEDS since there is a DEQ StationID?</t>
+  </si>
+  <si>
+    <t>NRSA site, not in CEDS.. Add to CEDS since there is a DEQ StationID? The folder is actually labeled 2008 and stored with 2008 files instead of 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRSA site, not in CEDS.. Add to CEDS since there is a DEQ StationID? </t>
+  </si>
+  <si>
+    <t>NRSA site, not in CEDS.. Add to CEDS since there is a DEQ StationID? The folder is stored with 2008 files instead of 2009</t>
+  </si>
+  <si>
+    <t>No records similar in 2012 or TMDL folders with name 1BRED000.46- Email VRO if they have raw data?</t>
+  </si>
+  <si>
+    <t>No records similar in 2010 or TMDL folders with name 2BMSC000.60- Email VRO</t>
+  </si>
+  <si>
+    <t>State prob site never entered into CEDS- lat lng?</t>
+  </si>
+  <si>
+    <t>No records found, check edas?</t>
+  </si>
+  <si>
+    <t>State prob site never entered into CEDS- lat lng? Check EDAS</t>
+  </si>
+  <si>
+    <t>repeated above</t>
+  </si>
+  <si>
+    <t>No records found, check edas? Aslo sampled 2014 so probably NRSA but can't find in either year folder</t>
+  </si>
+  <si>
+    <t>No records found, check edas? Aslo sampled 2014,2019 so probably NRSA but can't find in either year folder</t>
+  </si>
+  <si>
+    <t>no records, would have been in CEDS EDAS so no idea</t>
+  </si>
+  <si>
+    <t>confirmed with PRO</t>
+  </si>
+  <si>
+    <t>RB at 2-MRL000.63 on  2020-11-04, confirmed with VRO</t>
+  </si>
+  <si>
+    <t>2-PSK005.65</t>
+  </si>
+  <si>
+    <t>3-SMR004.81</t>
+  </si>
+  <si>
+    <t>4AGSY004.98</t>
+  </si>
+  <si>
+    <t>work with J</t>
   </si>
 </sst>
 </file>
@@ -924,7 +984,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1140,6 +1200,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1301,12 +1379,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
@@ -1315,6 +1391,27 @@
     <xf numFmtId="14" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1642,9 +1739,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1699,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1728,7 +1825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1757,7 +1854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1786,7 +1883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1815,7 +1912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1844,7 +1941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1873,7 +1970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1902,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1931,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1960,7 +2057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1989,7 +2086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2018,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2047,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2076,7 +2173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2105,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2134,7 +2231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2163,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2192,7 +2289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2221,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2250,7 +2347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2279,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2308,7 +2405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2337,7 +2434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2366,7 +2463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2395,7 +2492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2424,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2453,7 +2550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2482,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2511,7 +2608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2540,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2569,7 +2666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2598,7 +2695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2627,7 +2724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2656,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2685,7 +2782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2714,7 +2811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2743,7 +2840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2772,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2801,7 +2898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2830,7 +2927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2859,7 +2956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2888,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2917,7 +3014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2946,7 +3043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2975,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3004,7 +3101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3033,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3062,7 +3159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3091,7 +3188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3120,7 +3217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3149,7 +3246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3178,7 +3275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3207,7 +3304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3236,7 +3333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3265,7 +3362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3294,7 +3391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3323,7 +3420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3352,7 +3449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3381,7 +3478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3410,7 +3507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3439,7 +3536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3468,7 +3565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3497,7 +3594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3526,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3555,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3584,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3613,7 +3710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3642,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3671,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3700,7 +3797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3729,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3758,7 +3855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3787,7 +3884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3816,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3845,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3874,7 +3971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3903,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3932,7 +4029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3961,7 +4058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3990,7 +4087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4019,7 +4116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4048,7 +4145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4077,7 +4174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4106,7 +4203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4135,7 +4232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4164,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4193,7 +4290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4222,7 +4319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4251,7 +4348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4280,7 +4377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4309,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4338,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4367,7 +4464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4396,7 +4493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4425,7 +4522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4454,7 +4551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4483,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4512,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4541,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4570,7 +4667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4599,7 +4696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4628,7 +4725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4657,7 +4754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4686,7 +4783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4715,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4744,7 +4841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4773,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4802,7 +4899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4831,7 +4928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4860,7 +4957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4889,7 +4986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4918,7 +5015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4947,7 +5044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4976,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5005,7 +5102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5034,7 +5131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5063,7 +5160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5092,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5121,7 +5218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5150,7 +5247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5179,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5215,233 +5312,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>244</v>
       </c>
-      <c r="B1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>242</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>243</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>39042</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>38.728611110000003</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-77.203333330000007</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>39058</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>38.975777780000001</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-77.244955559999994</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>39058</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>38.97583333</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-77.246111110000001</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5">
+      <c r="C5" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>39058</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>38.930805560000003</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-77.298444439999997</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6">
+      <c r="C6" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>39058</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>39.415166669999998</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-78.275638889999996</v>
       </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7">
+      <c r="B7" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>39967</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
       <c r="G7" t="s">
         <v>19</v>
       </c>
@@ -5454,504 +5555,543 @@
       <c r="J7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8">
+      <c r="C8" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>40080</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>38.228333329999998</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-78.883611110000004</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>23</v>
       </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1">
+        <v>40080</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>38.902619440000002</v>
+      </c>
+      <c r="I9">
+        <v>-78.48450278</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C9">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1">
-        <v>40080</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9">
-        <v>38.902619440000002</v>
-      </c>
-      <c r="H9">
-        <v>-78.48450278</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9">
+      <c r="D10">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>41050</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <v>39.186944439999998</v>
+      </c>
+      <c r="I10">
+        <v>-78.084722220000003</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1">
-        <v>41050</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10">
-        <v>39.186944439999998</v>
-      </c>
-      <c r="H10">
-        <v>-78.084722220000003</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1">
+        <v>39722</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>37.74555556</v>
+      </c>
+      <c r="I11">
+        <v>-79.526388890000007</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1">
+        <v>39722</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>37.750500000000002</v>
+      </c>
+      <c r="I12">
+        <v>-79.535055999999997</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1">
+        <v>40415</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <v>37.519418999999999</v>
+      </c>
+      <c r="I13">
+        <v>-78.775199999999998</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1">
+        <v>40415</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <v>38.018333329999997</v>
+      </c>
+      <c r="I14">
+        <v>-78.46083333</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1">
-        <v>39722</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>37.74555556</v>
-      </c>
-      <c r="H11">
-        <v>-79.526388890000007</v>
-      </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1">
-        <v>39722</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12">
-        <v>37.750500000000002</v>
-      </c>
-      <c r="H12">
-        <v>-79.535055999999997</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15">
         <v>75</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F15" s="1">
         <v>40415</v>
       </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13">
-        <v>37.519418999999999</v>
-      </c>
-      <c r="H13">
-        <v>-78.775199999999998</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14">
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15">
+        <v>38.045000000000002</v>
+      </c>
+      <c r="I15">
+        <v>-78.463055550000007</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16">
         <v>75</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E16" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F16" s="1">
         <v>40415</v>
       </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14">
-        <v>38.018333329999997</v>
-      </c>
-      <c r="H14">
-        <v>-78.46083333</v>
-      </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15">
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16">
+        <v>38.013611109999999</v>
+      </c>
+      <c r="I16">
+        <v>-78.488194440000001</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17">
         <v>75</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E17" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F17" s="1">
         <v>40415</v>
       </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15">
-        <v>38.045000000000002</v>
-      </c>
-      <c r="H15">
-        <v>-78.463055550000007</v>
-      </c>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1">
-        <v>40415</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16">
-        <v>38.013611109999999</v>
-      </c>
-      <c r="H16">
-        <v>-78.488194440000001</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1">
-        <v>40415</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>43</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>38.182853000000001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-78.439055999999994</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>44</v>
       </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18">
+      <c r="C18" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>39167</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>46</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>37.385277780000003</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-79.211111110000004</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>47</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C19">
+      <c r="C19" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19">
         <v>79</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>39167</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>48</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>37.360277779999997</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-79.198888890000006</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>49</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20">
+      <c r="C20" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>39167</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>50</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>37.419444439999999</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-79.146111110000007</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>51</v>
       </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21">
+      <c r="C21" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>39167</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>52</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>37.536913890000001</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-79.366666670000001</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>53</v>
       </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22">
+      <c r="C22" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22">
         <v>79</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>39167</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>54</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>37.648611109999997</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-77.496666669999996</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>55</v>
       </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C23">
+      <c r="C23" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23">
         <v>79</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>39167</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>56</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>36.881277779999998</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-76.482638890000004</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>57</v>
       </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24">
+      <c r="B24" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24">
         <v>84</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>39960</v>
       </c>
-      <c r="F24" t="s">
-        <v>19</v>
-      </c>
       <c r="G24" t="s">
         <v>19</v>
       </c>
@@ -5964,22 +6104,27 @@
       <c r="J24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25">
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>40017</v>
       </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
@@ -5992,266 +6137,280 @@
       <c r="J25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26">
+      <c r="B26" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26">
         <v>125</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>39695</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>61</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>37.936111109999999</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-79.96611111</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>62</v>
       </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27">
+      <c r="B27" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27">
         <v>125</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>39695</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>63</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>38.015101999999999</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-79.916573</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>64</v>
       </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28">
+      <c r="B28" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28">
         <v>125</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>39695</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>65</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>38.104999999999997</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-79.813888890000001</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>66</v>
       </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
-      <c r="B29" t="s">
-        <v>246</v>
-      </c>
-      <c r="C29">
+      <c r="C29" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29">
         <v>135</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>38257</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>68</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>37.845050000000001</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-78.229583329999997</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>69</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30">
+      <c r="C30" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30">
         <v>135</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>38257</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>70</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>37.34111111</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-77.548333330000006</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>71</v>
       </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C31">
+      <c r="C31" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31">
         <v>135</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>38257</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>72</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>37.235277779999997</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-77.985555559999995</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>73</v>
       </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="B32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32">
+      <c r="C32" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32">
         <v>135</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>38257</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>74</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>37.700555549999997</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-77.552499999999995</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>75</v>
       </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33">
+      <c r="C33" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33">
         <v>135</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>38257</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>76</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>37.386388889999999</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-77.155555550000003</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>77</v>
       </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34">
+      <c r="K33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34">
         <v>220</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>40010</v>
       </c>
-      <c r="F34" t="s">
-        <v>19</v>
-      </c>
       <c r="G34" t="s">
         <v>19</v>
       </c>
@@ -6264,78 +6423,87 @@
       <c r="J34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35">
+      <c r="B35" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35">
         <v>223</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>40008</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>80</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>38.186944439999998</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-77.92694444</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>81</v>
       </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36">
+      <c r="B36" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36">
         <v>223</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>40008</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>82</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>38.13555556</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-77.026111110000002</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>83</v>
       </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37">
+      <c r="B37" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37">
         <v>237</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>40059</v>
       </c>
-      <c r="F37" t="s">
-        <v>19</v>
-      </c>
       <c r="G37" t="s">
         <v>19</v>
       </c>
@@ -6348,198 +6516,215 @@
       <c r="J37" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38">
+      <c r="B38" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38">
         <v>273</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>39961</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>86</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>37.0002</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>-79.617582999999996</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>87</v>
       </c>
-      <c r="J38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
-      <c r="B39" t="s">
-        <v>246</v>
-      </c>
-      <c r="C39">
+      <c r="C39" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39">
         <v>295</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>39392</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>89</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>37.108611109999998</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>-78.564166670000006</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>90</v>
       </c>
-      <c r="J39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40">
+      <c r="K39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40">
         <v>341</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>39022</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>92</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>36.76769445</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>-78.957694450000005</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>93</v>
       </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41">
+      <c r="B41" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41">
         <v>341</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>39022</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>94</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>37.081388889999999</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>-77.279444440000006</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>95</v>
       </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42">
+      <c r="B42" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42">
         <v>357</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>40058</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>97</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>36.569871999999997</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>-77.361413999999996</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>98</v>
       </c>
-      <c r="J42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>100</v>
       </c>
-      <c r="B43" t="s">
-        <v>246</v>
-      </c>
-      <c r="C43">
+      <c r="C43" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43">
         <v>456</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>40470</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>100</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>37.742194439999999</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>-77.614583330000002</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>101</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44">
+      <c r="B44" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44">
         <v>465</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>40052</v>
       </c>
-      <c r="F44" t="s">
-        <v>19</v>
-      </c>
       <c r="G44" t="s">
         <v>19</v>
       </c>
@@ -6552,230 +6737,248 @@
       <c r="J44" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
-      <c r="B45" t="s">
-        <v>246</v>
-      </c>
-      <c r="C45">
+      <c r="C45" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45">
         <v>472</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>38638</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>104</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>36.71083333</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>-81.164722220000002</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>105</v>
       </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
-      <c r="B46" t="s">
-        <v>246</v>
-      </c>
-      <c r="C46">
+      <c r="C46" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46">
         <v>479</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>38622</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>107</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>37.243055560000002</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>-81.171388890000003</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>108</v>
       </c>
-      <c r="J46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47">
         <v>496</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="E47" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="12">
+      <c r="F47" s="10">
         <v>39706</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>110</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>37.18514167</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>-80.825872219999994</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>111</v>
       </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48">
         <v>496</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="E48" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="12">
+      <c r="F48" s="10">
         <v>39706</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>112</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>37.118333329999999</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>-81.009166669999999</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>113</v>
       </c>
-      <c r="J48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49">
+      <c r="B49" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49">
         <v>499</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>39721</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>115</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>37.162700000000001</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>-80.854900000000001</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>116</v>
       </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50">
+      <c r="B50" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50">
         <v>499</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>114</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>39721</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>117</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>37.162777779999999</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>-80.859722219999995</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>118</v>
       </c>
-      <c r="J50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51">
+      <c r="B51" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51">
         <v>499</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>39721</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>119</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>37.090555999999999</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>-81.091110999999998</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>120</v>
       </c>
-      <c r="J51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52">
+      <c r="B52" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52">
         <v>501</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E52" s="9">
+      <c r="F52" s="7">
         <v>39713</v>
       </c>
-      <c r="F52" t="s">
-        <v>19</v>
-      </c>
       <c r="G52" t="s">
         <v>19</v>
       </c>
@@ -6788,78 +6991,87 @@
       <c r="J52" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53">
+      <c r="B53" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53">
         <v>506</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>41347</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>123</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>37.037319439999997</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>-80.775533330000002</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>124</v>
       </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54">
+      <c r="B54" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54">
         <v>556</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>39723</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>126</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>37.233600000000003</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>-78.867199999999997</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>127</v>
       </c>
-      <c r="J54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55">
+      <c r="B55" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55">
         <v>615</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="9">
+      <c r="F55" s="7">
         <v>41872</v>
       </c>
-      <c r="F55" t="s">
-        <v>19</v>
-      </c>
       <c r="G55" t="s">
         <v>19</v>
       </c>
@@ -6872,160 +7084,178 @@
       <c r="J55" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C56">
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56">
         <v>616</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>41870</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>61</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>37.936111109999999</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>-79.96611111</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>62</v>
       </c>
-      <c r="J56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C57">
+      <c r="K56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57">
         <v>616</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>41870</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>63</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>38.015101999999999</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>-79.916573</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>64</v>
       </c>
-      <c r="J57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C58">
+      <c r="K57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58">
         <v>616</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>41870</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>65</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>38.104999999999997</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>-79.813888890000001</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>66</v>
       </c>
-      <c r="J58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59">
         <v>617</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>41884</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>80</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>38.186944439999998</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>-77.92694444</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>81</v>
       </c>
-      <c r="J59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60">
         <v>617</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>79</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>41884</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>82</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>38.13555556</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>-77.026111110000002</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>83</v>
       </c>
-      <c r="J60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61">
+      <c r="B61" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61">
         <v>618</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>58</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>41863</v>
       </c>
-      <c r="F61" t="s">
-        <v>19</v>
-      </c>
       <c r="G61" t="s">
         <v>19</v>
       </c>
@@ -7038,22 +7268,25 @@
       <c r="J61" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62">
+      <c r="B62" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62">
         <v>619</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>102</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>41869</v>
       </c>
-      <c r="F62" t="s">
-        <v>19</v>
-      </c>
       <c r="G62" t="s">
         <v>19</v>
       </c>
@@ -7066,22 +7299,27 @@
       <c r="J62" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63">
+      <c r="K62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63">
         <v>622</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="E63" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E63" s="8">
+      <c r="F63" s="6">
         <v>41862</v>
       </c>
-      <c r="F63" t="s">
-        <v>19</v>
-      </c>
       <c r="G63" t="s">
         <v>19</v>
       </c>
@@ -7094,22 +7332,27 @@
       <c r="J63" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64">
+      <c r="K63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64">
         <v>623</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="E64" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="8">
+      <c r="F64" s="6">
         <v>41885</v>
       </c>
-      <c r="F64" t="s">
-        <v>19</v>
-      </c>
       <c r="G64" t="s">
         <v>19</v>
       </c>
@@ -7122,926 +7365,948 @@
       <c r="J64" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>129</v>
       </c>
-      <c r="B65" t="s">
-        <v>246</v>
-      </c>
-      <c r="C65">
+      <c r="C65" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65">
         <v>630</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>128</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>42324</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>129</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>37.09944445</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>-79.281388890000002</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>130</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>129</v>
       </c>
-      <c r="B66" t="s">
-        <v>246</v>
-      </c>
-      <c r="C66">
+      <c r="C66" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D66">
         <v>630</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>128</v>
       </c>
-      <c r="E66" s="1">
+      <c r="F66" s="1">
         <v>42324</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>131</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>37.105083</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>-79.282600000000002</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>132</v>
       </c>
-      <c r="J66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67">
+      <c r="B67" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67">
         <v>631</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>133</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>42446</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>134</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>37.280555550000003</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>-78.363888889999998</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>135</v>
       </c>
-      <c r="J67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68">
+      <c r="B68" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68">
         <v>631</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>133</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>42446</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>136</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>37.255000000000003</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>-78.392777780000003</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>137</v>
       </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69">
+      <c r="B69" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69">
         <v>631</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>133</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>42446</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>138</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>37.222549999999998</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>-78.424088889999993</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>139</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70">
+      <c r="B70" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70">
         <v>631</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>133</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>42446</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>140</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>37.22966667</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>-78.421111109999998</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>141</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71">
+      <c r="B71" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71">
         <v>631</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>133</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="1">
         <v>42446</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>142</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>37.60011111</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>-77.357583329999997</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>143</v>
       </c>
-      <c r="J71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>145</v>
       </c>
-      <c r="B72" t="s">
-        <v>246</v>
-      </c>
-      <c r="C72">
+      <c r="C72" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D72">
         <v>652</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>144</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>42276</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>145</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>36.6036</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>-82.758899999999997</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>146</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>145</v>
       </c>
-      <c r="B73" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73">
+      <c r="C73" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D73">
         <v>652</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>144</v>
       </c>
-      <c r="E73" s="1">
+      <c r="F73" s="1">
         <v>42276</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>147</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>36.606666670000003</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>-82.738611109999994</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>148</v>
       </c>
-      <c r="J73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>152</v>
       </c>
-      <c r="B74" t="s">
-        <v>246</v>
-      </c>
-      <c r="C74">
+      <c r="C74" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D74">
         <v>666</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>149</v>
       </c>
-      <c r="E74" s="1">
+      <c r="F74" s="1">
         <v>42291</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>150</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>38.001666669999999</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>-76.977222220000002</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>151</v>
       </c>
-      <c r="J74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>152</v>
       </c>
-      <c r="B75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C75">
+      <c r="C75" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75">
         <v>666</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>149</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>42291</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>152</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>38.412599999999998</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>-78.388800000000003</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>153</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>155</v>
       </c>
-      <c r="B76" t="s">
-        <v>246</v>
-      </c>
-      <c r="C76">
+      <c r="C76" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76">
         <v>691</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>154</v>
       </c>
-      <c r="E76" s="1">
+      <c r="F76" s="1">
         <v>42222</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>155</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>37.539200000000001</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>-79.448211110000003</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>156</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>158</v>
       </c>
-      <c r="B77" t="s">
-        <v>246</v>
-      </c>
-      <c r="C77">
+      <c r="C77" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77">
         <v>716</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>157</v>
       </c>
-      <c r="E77" s="1">
+      <c r="F77" s="1">
         <v>42668</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>158</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>38.447802780000004</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>-78.565563890000007</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>159</v>
       </c>
-      <c r="J77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>158</v>
       </c>
-      <c r="B78" t="s">
-        <v>246</v>
-      </c>
-      <c r="C78">
+      <c r="C78" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D78">
         <v>716</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>157</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>42668</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>160</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>38.308333330000004</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>-78.925277780000002</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>161</v>
       </c>
-      <c r="J78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="s">
-        <v>246</v>
-      </c>
-      <c r="C79">
+      <c r="C79" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79">
         <v>716</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>157</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>42668</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>162</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>38.302888889999998</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>-78.968805560000007</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>163</v>
       </c>
-      <c r="J79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>158</v>
       </c>
-      <c r="B80" t="s">
-        <v>246</v>
-      </c>
-      <c r="C80">
+      <c r="C80" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D80">
         <v>716</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>157</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="1">
         <v>42668</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>164</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>38.571111109999997</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>-79.138333329999995</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>165</v>
       </c>
-      <c r="J80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>174</v>
       </c>
-      <c r="B81" t="s">
-        <v>246</v>
-      </c>
-      <c r="C81">
+      <c r="C81" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D81">
         <v>736</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>166</v>
       </c>
-      <c r="E81" s="1">
+      <c r="F81" s="1">
         <v>42642</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>167</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>37.21388889</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>-81.362499999999997</v>
       </c>
-      <c r="I81" t="s">
-        <v>19</v>
-      </c>
-      <c r="J81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J81" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>174</v>
       </c>
-      <c r="B82" t="s">
-        <v>246</v>
-      </c>
-      <c r="C82">
+      <c r="C82" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82">
         <v>736</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>166</v>
       </c>
-      <c r="E82" s="1">
+      <c r="F82" s="1">
         <v>42642</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>168</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>37.302500000000002</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>-81.297222219999995</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>169</v>
       </c>
-      <c r="J82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>174</v>
       </c>
-      <c r="B83" t="s">
-        <v>246</v>
-      </c>
-      <c r="C83">
+      <c r="C83" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D83">
         <v>736</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>166</v>
       </c>
-      <c r="E83" s="1">
+      <c r="F83" s="1">
         <v>42642</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>170</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>37.255000000000003</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>-81.276111110000002</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>171</v>
       </c>
-      <c r="J83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>174</v>
       </c>
-      <c r="B84" t="s">
-        <v>246</v>
-      </c>
-      <c r="C84">
+      <c r="C84" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84">
         <v>736</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>166</v>
       </c>
-      <c r="E84" s="1">
+      <c r="F84" s="1">
         <v>42642</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>172</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>37.259166669999999</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>-81.282499999999999</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>173</v>
       </c>
-      <c r="J84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>174</v>
       </c>
-      <c r="B85" t="s">
-        <v>246</v>
-      </c>
-      <c r="C85">
+      <c r="C85" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D85">
         <v>736</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>166</v>
       </c>
-      <c r="E85" s="1">
+      <c r="F85" s="1">
         <v>42642</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>174</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>37.260174999999997</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>-81.28266945</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>175</v>
       </c>
-      <c r="J85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>174</v>
       </c>
-      <c r="B86" t="s">
-        <v>246</v>
-      </c>
-      <c r="C86">
+      <c r="C86" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D86">
         <v>736</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>166</v>
       </c>
-      <c r="E86" s="1">
+      <c r="F86" s="1">
         <v>42642</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>176</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>37.263316670000002</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>-81.281899999999993</v>
       </c>
-      <c r="I86" t="s">
-        <v>19</v>
-      </c>
-      <c r="J86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="s">
-        <v>246</v>
-      </c>
-      <c r="C87">
+      <c r="C87" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87">
         <v>736</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>166</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="1">
         <v>42642</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>177</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>37.256763999999997</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>-81.280264000000003</v>
       </c>
-      <c r="I87" t="s">
-        <v>19</v>
-      </c>
-      <c r="J87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J87" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>174</v>
       </c>
-      <c r="B88" t="s">
-        <v>246</v>
-      </c>
-      <c r="C88">
+      <c r="C88" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D88">
         <v>736</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>166</v>
       </c>
-      <c r="E88" s="1">
+      <c r="F88" s="1">
         <v>42642</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>178</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>37.256763999999997</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>-81.280264000000003</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>179</v>
       </c>
-      <c r="J88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>174</v>
       </c>
-      <c r="B89" t="s">
-        <v>246</v>
-      </c>
-      <c r="C89">
+      <c r="C89" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D89">
         <v>736</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>166</v>
       </c>
-      <c r="E89" s="1">
+      <c r="F89" s="1">
         <v>42642</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>180</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>37.263317000000001</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>-81.281899999999993</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>181</v>
       </c>
-      <c r="J89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>185</v>
       </c>
-      <c r="B90" t="s">
-        <v>246</v>
-      </c>
-      <c r="C90">
+      <c r="C90" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90">
         <v>778</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>182</v>
       </c>
-      <c r="E90" s="1">
+      <c r="F90" s="1">
         <v>42991</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>183</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>37.267788889999999</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>-79.587163889999999</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>184</v>
       </c>
-      <c r="J90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>185</v>
       </c>
-      <c r="B91" t="s">
-        <v>246</v>
-      </c>
-      <c r="C91">
+      <c r="C91" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D91">
         <v>778</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>182</v>
       </c>
-      <c r="E91" s="1">
+      <c r="F91" s="1">
         <v>42991</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>185</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>37.26163889</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>-79.881111110000006</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>186</v>
       </c>
-      <c r="J91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C92">
+      <c r="B92" s="12"/>
+      <c r="C92" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92">
         <v>816</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>187</v>
       </c>
-      <c r="E92" s="1">
+      <c r="F92" s="1">
         <v>39677</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>188</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>36.601944439999997</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>-79.777222219999999</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>189</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C93">
+      <c r="B93" s="12"/>
+      <c r="C93" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D93">
         <v>818</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>190</v>
       </c>
-      <c r="E93" s="1">
+      <c r="F93" s="1">
         <v>39677</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>191</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>36.701111109999999</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>-79.93305556</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>192</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94">
         <v>834</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>78</v>
       </c>
-      <c r="E94" s="1">
+      <c r="F94" s="1">
         <v>43363</v>
       </c>
-      <c r="F94" t="s">
-        <v>19</v>
-      </c>
       <c r="G94" t="s">
         <v>19</v>
       </c>
@@ -8054,22 +8319,25 @@
       <c r="J94" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95">
+      <c r="B95" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95">
         <v>836</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>58</v>
       </c>
-      <c r="E95" s="1">
+      <c r="F95" s="1">
         <v>43313</v>
       </c>
-      <c r="F95" t="s">
-        <v>19</v>
-      </c>
       <c r="G95" t="s">
         <v>19</v>
       </c>
@@ -8082,22 +8350,27 @@
       <c r="J95" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96">
+      <c r="K95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96">
         <v>837</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="E96" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E96" s="8">
+      <c r="F96" s="6">
         <v>43333</v>
       </c>
-      <c r="F96" t="s">
-        <v>19</v>
-      </c>
       <c r="G96" t="s">
         <v>19</v>
       </c>
@@ -8110,22 +8383,25 @@
       <c r="J96" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97">
+      <c r="B97" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97">
         <v>839</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="E97" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E97" s="10">
+      <c r="F97" s="8">
         <v>43318</v>
       </c>
-      <c r="F97" t="s">
-        <v>19</v>
-      </c>
       <c r="G97" t="s">
         <v>19</v>
       </c>
@@ -8138,174 +8414,177 @@
       <c r="J97" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>194</v>
       </c>
-      <c r="B98" t="s">
-        <v>246</v>
-      </c>
-      <c r="C98">
+      <c r="C98" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D98">
         <v>862</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>193</v>
       </c>
-      <c r="E98" s="1">
+      <c r="F98" s="1">
         <v>42996</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>194</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>37.890588999999999</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>-78.915450000000007</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>195</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>194</v>
       </c>
-      <c r="B99" t="s">
-        <v>246</v>
-      </c>
-      <c r="C99">
+      <c r="C99" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D99">
         <v>863</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>196</v>
       </c>
-      <c r="E99" s="1">
+      <c r="F99" s="1">
         <v>42996</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>197</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>37.883850000000002</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>-78.899319000000006</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>198</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="s">
-        <v>246</v>
-      </c>
-      <c r="C100">
+      <c r="C100" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D100">
         <v>870</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>199</v>
       </c>
-      <c r="E100" s="1">
+      <c r="F100" s="1">
         <v>43398</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>200</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>37.574986000000003</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>-78.950072000000006</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>201</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C101">
+    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C101" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D101">
         <v>891</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>202</v>
       </c>
-      <c r="E101" s="1">
+      <c r="F101" s="1">
         <v>43682</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>203</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>38.929400000000001</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>-77.873699999999999</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>204</v>
       </c>
-      <c r="J101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B102" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C102">
+      <c r="K101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C102" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D102">
         <v>892</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>202</v>
       </c>
-      <c r="E102" s="1">
+      <c r="F102" s="1">
         <v>43696</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>203</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>38.929400000000001</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>-77.873699999999999</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>204</v>
       </c>
-      <c r="J102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C103">
+      <c r="K102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B103" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D103">
         <v>897</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>102</v>
       </c>
-      <c r="E103" s="1">
+      <c r="F103" s="1">
         <v>43620</v>
       </c>
-      <c r="F103" t="s">
-        <v>19</v>
-      </c>
       <c r="G103" t="s">
         <v>19</v>
       </c>
@@ -8318,608 +8597,656 @@
       <c r="J103" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="B104" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C104">
+      <c r="B104" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D104">
         <v>898</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="E104" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E104" s="12">
+      <c r="F104" s="10">
         <v>43622</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>110</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>37.18514167</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>-80.825872219999994</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>111</v>
       </c>
-      <c r="J104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
-      <c r="B105" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C105">
+      <c r="B105" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D105">
         <v>898</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="E105" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E105" s="12">
+      <c r="F105" s="10">
         <v>43622</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>112</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>37.118333329999999</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>-81.009166669999999</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>113</v>
       </c>
-      <c r="J105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>206</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C106">
+      <c r="C106" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106">
         <v>902</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>205</v>
       </c>
-      <c r="E106" s="1">
+      <c r="F106" s="1">
         <v>43776</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>206</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>36.745750000000001</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>-80.553518999999994</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>207</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>211</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C107">
+      <c r="C107" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D107">
         <v>910</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>208</v>
       </c>
-      <c r="E107" s="1">
+      <c r="F107" s="1">
         <v>43397</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>209</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>37.389166670000002</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>-78.64</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>210</v>
       </c>
-      <c r="J107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>211</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C108">
+      <c r="C108" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D108">
         <v>910</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>208</v>
       </c>
-      <c r="E108" s="1">
+      <c r="F108" s="1">
         <v>43397</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>211</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>37.416111110000003</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>-78.636138889999998</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>212</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>211</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C109">
+      <c r="C109" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D109">
         <v>910</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>208</v>
       </c>
-      <c r="E109" s="1">
+      <c r="F109" s="1">
         <v>43397</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>213</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>37.414444449999998</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>-77.35083333</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>214</v>
       </c>
-      <c r="J109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C110">
+      <c r="C110" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D110">
         <v>925</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>215</v>
       </c>
-      <c r="E110" s="1">
+      <c r="F110" s="1">
         <v>43762</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>216</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>36.577877780000001</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>-79.73593056</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>217</v>
       </c>
-      <c r="J110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>218</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C111">
+      <c r="C111" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D111">
         <v>925</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>215</v>
       </c>
-      <c r="E111" s="1">
+      <c r="F111" s="1">
         <v>43762</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>218</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>36.843600000000002</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>-80.161699999999996</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>219</v>
       </c>
-      <c r="J111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>218</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C112">
+      <c r="C112" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D112">
         <v>925</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>215</v>
       </c>
-      <c r="E112" s="1">
+      <c r="F112" s="1">
         <v>43762</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>220</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>36.806305559999998</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>-80.200388889999999</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>221</v>
       </c>
-      <c r="J112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>218</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C113">
+      <c r="C113" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D113">
         <v>925</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>215</v>
       </c>
-      <c r="E113" s="1">
+      <c r="F113" s="1">
         <v>43762</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>222</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>36.762459999999997</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>-79.995103</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>223</v>
       </c>
-      <c r="J113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114">
+      <c r="B114" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114">
         <v>930</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>224</v>
       </c>
-      <c r="E114" s="1">
+      <c r="F114" s="1">
         <v>44070</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>225</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>36.99</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>-76.647222220000003</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>226</v>
       </c>
-      <c r="J114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115">
+      <c r="B115" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115">
         <v>930</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>224</v>
       </c>
-      <c r="E115" s="1">
+      <c r="F115" s="1">
         <v>44070</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>227</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>36.974722219999997</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>-76.668888890000005</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>228</v>
       </c>
-      <c r="J115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116">
+      <c r="B116" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116">
         <v>930</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>224</v>
       </c>
-      <c r="E116" s="1">
+      <c r="F116" s="1">
         <v>44070</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>37</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>38.018333329999997</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>-78.46083333</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>38</v>
       </c>
-      <c r="J116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117">
+      <c r="B117" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117">
         <v>930</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>224</v>
       </c>
-      <c r="E117" s="1">
+      <c r="F117" s="1">
         <v>44070</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>39</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>38.045000000000002</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>-78.463055550000007</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>40</v>
       </c>
-      <c r="J117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118">
+      <c r="B118" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118">
         <v>930</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>224</v>
       </c>
-      <c r="E118" s="1">
+      <c r="F118" s="1">
         <v>44070</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>229</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>37.298250000000003</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>-77.263638889999996</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>230</v>
       </c>
-      <c r="J118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119">
+      <c r="B119" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119">
         <v>930</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>224</v>
       </c>
-      <c r="E119" s="1">
+      <c r="F119" s="1">
         <v>44070</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>231</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>37.790649999999999</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>-79.360403000000005</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>232</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120">
         <v>930</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>224</v>
       </c>
-      <c r="E120" s="1">
+      <c r="F120" s="1">
         <v>44070</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>233</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>37.453055560000003</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>-76.308888890000006</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>234</v>
       </c>
-      <c r="J120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121">
+      <c r="K120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121">
         <v>930</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>224</v>
       </c>
-      <c r="E121" s="1">
+      <c r="F121" s="1">
         <v>44070</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>235</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>37.214722219999999</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>-76.744166669999998</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>236</v>
       </c>
-      <c r="J121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C122">
+      <c r="K121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122">
         <v>938</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>237</v>
       </c>
-      <c r="E122" s="1">
+      <c r="F122" s="1">
         <v>43859</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>238</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>37.380694439999999</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>-77.422499999999999</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>239</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C123">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>238</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123">
         <v>938</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>237</v>
       </c>
-      <c r="E123" s="1">
+      <c r="F123" s="1">
         <v>43859</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>240</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>37.952811109999999</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>-77.378172219999996</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>241</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K123">
+    <sortState ref="A2:K123">
+      <sortCondition ref="D69"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>